--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Pomc-Mc4r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +522,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.55477</v>
+        <v>0.3971766666666667</v>
       </c>
       <c r="H2">
-        <v>4.66431</v>
+        <v>1.19153</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,158 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.01244633333333333</v>
+        <v>0.443866</v>
       </c>
       <c r="N2">
-        <v>0.037339</v>
+        <v>0.887732</v>
       </c>
       <c r="O2">
-        <v>0.1946457940734137</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.2265894761115864</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01935118567666666</v>
+        <v>0.1762932183266667</v>
       </c>
       <c r="R2">
-        <v>0.17416067109</v>
+        <v>1.05775930996</v>
       </c>
       <c r="S2">
-        <v>0.1946457940734137</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.2265894761115864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.55477</v>
-      </c>
-      <c r="H3">
-        <v>4.66431</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
-      <c r="M3">
-        <v>0.0270435</v>
-      </c>
-      <c r="N3">
-        <v>0.054087</v>
-      </c>
-      <c r="O3">
-        <v>0.4229280536723827</v>
-      </c>
-      <c r="P3">
-        <v>0.3282237069671758</v>
-      </c>
-      <c r="Q3">
-        <v>0.042046422495</v>
-      </c>
-      <c r="R3">
-        <v>0.25227853497</v>
-      </c>
-      <c r="S3">
-        <v>0.4229280536723827</v>
-      </c>
-      <c r="T3">
-        <v>0.3282237069671758</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.55477</v>
-      </c>
-      <c r="H4">
-        <v>4.66431</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.02445366666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.073361</v>
-      </c>
-      <c r="O4">
-        <v>0.3824261522542036</v>
-      </c>
-      <c r="P4">
-        <v>0.4451868169212376</v>
-      </c>
-      <c r="Q4">
-        <v>0.03801982732333332</v>
-      </c>
-      <c r="R4">
-        <v>0.34217844591</v>
-      </c>
-      <c r="S4">
-        <v>0.3824261522542036</v>
-      </c>
-      <c r="T4">
-        <v>0.4451868169212376</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
